--- a/Evaluations/FoCus-COT-results.xlsx
+++ b/Evaluations/FoCus-COT-results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,6 +1287,128 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gemma-7B-Instruct</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.81 ± 0.39</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.42 ± 0.79</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26 ± 0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.01 ± 0.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.14 ± 0.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.03 ± 0.04</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.12 ± 0.08</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.15 ± 0.1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.71 ± 0.3</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.73 ± 0.31</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.72 ± 0.3</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.68 ± 0.29</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.83 ± 0.35</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.1 ± 0.09</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.53 ± 0.25</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>9.68 ± 1.44</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.15 ± 0.00</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.77 ± 0.33</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.85 ± 0.36</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>3.63 ± 1.94</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.81 ± 0.38</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0.77 ± 0.33</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>1.37 ± 0.62</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
